--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\~\Documents\research\cartpole\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB5C5BC-7B22-444D-952E-3A63A0416E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38048D6D-0FDD-4A98-A071-23FB42FA7A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{34003DEC-DD88-4198-8C20-61AF9BEF740F}"/>
+    <workbookView xWindow="-558" yWindow="564" windowWidth="17280" windowHeight="9048" xr2:uid="{34003DEC-DD88-4198-8C20-61AF9BEF740F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>log_10 lambda</t>
   </si>
@@ -177,8 +177,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -214,8 +214,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -234,19 +234,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="nonlinear_fit_params" connectionId="4" xr16:uid="{D26B6334-BD79-461E-B15D-C89F9B7BB5B0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lin_policy_params_1" connectionId="2" xr16:uid="{05F16563-5273-414B-8777-95817AA6965A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lin_policy_params_2" connectionId="3" xr16:uid="{DB6EF1E1-740B-4456-B5B8-8F46C4225009}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lin_policy_params" connectionId="1" xr16:uid="{491EEDCA-CD54-47DF-8D57-7EFA423407AD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="nonlinear_fit_params" connectionId="4" xr16:uid="{D26B6334-BD79-461E-B15D-C89F9B7BB5B0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lin_policy_params_1" connectionId="2" xr16:uid="{05F16563-5273-414B-8777-95817AA6965A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0688622D-CF28-4FE6-A12D-584275D3840F}">
   <dimension ref="A1:W154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="I10" sqref="A3:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -561,12 +561,12 @@
     <col min="10" max="10" width="8.9453125" customWidth="1"/>
     <col min="11" max="11" width="8.15625" customWidth="1"/>
     <col min="12" max="12" width="9.68359375" customWidth="1"/>
-    <col min="13" max="13" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.26171875" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="4.68359375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="6.20703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.05078125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2438,6 +2438,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="M53" t="s">
+        <v>22</v>
+      </c>
+      <c r="N53" t="s">
+        <v>21</v>
+      </c>
+      <c r="O53" t="s">
+        <v>23</v>
+      </c>
+      <c r="P53" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="F54">
         <f>_xlfn.STDEV.P(F55:F154)</f>
@@ -2451,6 +2468,21 @@
         <f>G54/F54</f>
         <v>2.5970571495015502</v>
       </c>
+      <c r="M54" s="5">
+        <v>-10</v>
+      </c>
+      <c r="N54" s="4">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="O54">
+        <v>-11.0862895627988</v>
+      </c>
+      <c r="P54">
+        <v>-11.202999999999999</v>
+      </c>
+      <c r="Q54">
+        <v>4</v>
+      </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="F55">
@@ -2459,6 +2491,21 @@
       <c r="G55">
         <v>58.108118223725903</v>
       </c>
+      <c r="M55" s="5">
+        <v>-9.5</v>
+      </c>
+      <c r="N55" s="4">
+        <v>1.3810679320049757E-3</v>
+      </c>
+      <c r="O55">
+        <v>-10.4142184947618</v>
+      </c>
+      <c r="P55">
+        <v>-10.989000000000001</v>
+      </c>
+      <c r="Q55">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="F56">
@@ -2467,6 +2514,21 @@
       <c r="G56">
         <v>13.781862473358601</v>
       </c>
+      <c r="M56" s="5">
+        <v>-9</v>
+      </c>
+      <c r="N56" s="4">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O56">
+        <v>-9.6572687993025106</v>
+      </c>
+      <c r="P56">
+        <v>-9.8420000000000005</v>
+      </c>
+      <c r="Q56">
+        <v>6</v>
+      </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="F57">
@@ -2475,6 +2537,21 @@
       <c r="G57">
         <v>109.63536622889301</v>
       </c>
+      <c r="M57" s="5">
+        <v>-8.5</v>
+      </c>
+      <c r="N57" s="4">
+        <v>2.7621358640099515E-3</v>
+      </c>
+      <c r="O57">
+        <v>-8.9585814854670005</v>
+      </c>
+      <c r="P57">
+        <v>-8.94</v>
+      </c>
+      <c r="Q57">
+        <v>2</v>
+      </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="F58">
@@ -2483,6 +2560,21 @@
       <c r="G58">
         <v>7.2120859553530101</v>
       </c>
+      <c r="M58" s="5">
+        <v>-8</v>
+      </c>
+      <c r="N58" s="4">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="O58">
+        <v>-8.1453496580507494</v>
+      </c>
+      <c r="P58">
+        <v>-8.1329999999999991</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="F59">
@@ -2491,6 +2583,21 @@
       <c r="G59">
         <v>21.858399048575802</v>
       </c>
+      <c r="M59" s="5">
+        <v>-7.5</v>
+      </c>
+      <c r="N59" s="4">
+        <v>5.5242717280199038E-3</v>
+      </c>
+      <c r="O59">
+        <v>-7.5400722526237196</v>
+      </c>
+      <c r="P59">
+        <v>-7.6751319999999996</v>
+      </c>
+      <c r="Q59">
+        <v>3</v>
+      </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="F60">
@@ -2499,6 +2606,21 @@
       <c r="G60">
         <v>-26.598758937086401</v>
       </c>
+      <c r="M60" s="5">
+        <v>-7</v>
+      </c>
+      <c r="N60" s="4">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="O60">
+        <v>-6.85972824674805</v>
+      </c>
+      <c r="P60">
+        <v>-0.65800000000000003</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="F61">
@@ -2507,6 +2629,21 @@
       <c r="G61">
         <v>-45.083118250946399</v>
       </c>
+      <c r="M61" s="5">
+        <v>-6.5</v>
+      </c>
+      <c r="N61" s="4">
+        <v>1.1048543456039808E-2</v>
+      </c>
+      <c r="O61">
+        <v>-6.2141508047952003</v>
+      </c>
+      <c r="P61">
+        <v>-6.2469999999999999</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="F62">
@@ -2515,6 +2652,21 @@
       <c r="G62">
         <v>28.7611606479282</v>
       </c>
+      <c r="M62" s="5">
+        <v>-6</v>
+      </c>
+      <c r="N62" s="4">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="O62">
+        <v>-5.5654528341454697</v>
+      </c>
+      <c r="P62">
+        <v>-0.34799999999999998</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="F63">
@@ -2523,6 +2675,21 @@
       <c r="G63">
         <v>88.168465358969897</v>
       </c>
+      <c r="M63" s="5">
+        <v>-5.5</v>
+      </c>
+      <c r="N63" s="4">
+        <v>2.2097086912079608E-2</v>
+      </c>
+      <c r="O63">
+        <v>-4.8216616617160897</v>
+      </c>
+      <c r="P63">
+        <v>-0.34599999999999997</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="F64">
@@ -2531,96 +2698,266 @@
       <c r="G64">
         <v>-8.6348828743116002</v>
       </c>
-    </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="M64" s="5">
+        <v>-5</v>
+      </c>
+      <c r="N64" s="4">
+        <v>3.125E-2</v>
+      </c>
+      <c r="O64">
+        <v>-4.3972489053296604</v>
+      </c>
+      <c r="P64">
+        <v>-4.226</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="6:17" x14ac:dyDescent="0.55000000000000004">
       <c r="F65">
         <v>-3.1523347114084999</v>
       </c>
       <c r="G65">
         <v>-26.536722329757598</v>
       </c>
-    </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="M65" s="5">
+        <v>-4.5</v>
+      </c>
+      <c r="N65" s="4">
+        <v>4.4194173824159223E-2</v>
+      </c>
+      <c r="O65">
+        <v>-3.5392391895936299</v>
+      </c>
+      <c r="P65">
+        <v>-0.63800000000000001</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="6:17" x14ac:dyDescent="0.55000000000000004">
       <c r="F66">
         <v>-12.3096509890334</v>
       </c>
       <c r="G66">
         <v>-5.1419448893731001</v>
       </c>
-    </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="M66" s="5">
+        <v>-4</v>
+      </c>
+      <c r="N66" s="4">
+        <v>6.25E-2</v>
+      </c>
+      <c r="O66">
+        <v>-3.03818483817003</v>
+      </c>
+      <c r="P66">
+        <v>-0.66500000000000004</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="6:17" x14ac:dyDescent="0.55000000000000004">
       <c r="F67">
         <v>14.9358643582447</v>
       </c>
       <c r="G67">
         <v>52.258805478700197</v>
       </c>
-    </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="M67" s="5">
+        <v>-3.5</v>
+      </c>
+      <c r="N67" s="4">
+        <v>8.8388347648318447E-2</v>
+      </c>
+      <c r="O67">
+        <v>-2.4104389210864299</v>
+      </c>
+      <c r="P67">
+        <v>-0.58899999999999997</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="6:17" x14ac:dyDescent="0.55000000000000004">
       <c r="F68">
         <v>33.898772039157301</v>
       </c>
       <c r="G68">
         <v>49.424765835685498</v>
       </c>
-    </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="M68" s="5">
+        <v>-3</v>
+      </c>
+      <c r="N68" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="O68">
+        <v>-1.9635915679955001</v>
+      </c>
+      <c r="P68">
+        <v>-0.629</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="6:17" x14ac:dyDescent="0.55000000000000004">
       <c r="F69">
         <v>26.733418154965499</v>
       </c>
       <c r="G69">
         <v>36.682477250581798</v>
       </c>
-    </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="M69" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="N69" s="4">
+        <v>0.17677669529663687</v>
+      </c>
+      <c r="O69">
+        <v>-1.4715298260699099</v>
+      </c>
+      <c r="P69">
+        <v>-0.59899999999999998</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="6:17" x14ac:dyDescent="0.55000000000000004">
       <c r="F70">
         <v>24.184601722517701</v>
       </c>
       <c r="G70">
         <v>49.823545678858402</v>
       </c>
-    </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="M70" s="5">
+        <v>-2</v>
+      </c>
+      <c r="N70" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="O70">
+        <v>-0.98561673334091704</v>
+      </c>
+      <c r="P70">
+        <v>-0.60299999999999998</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="6:17" x14ac:dyDescent="0.55000000000000004">
       <c r="F71">
         <v>20.903812713923902</v>
       </c>
       <c r="G71">
         <v>67.383357080426094</v>
       </c>
-    </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="M71" s="5">
+        <v>-1.5</v>
+      </c>
+      <c r="N71" s="4">
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="O71">
+        <v>-0.69776738907803704</v>
+      </c>
+      <c r="P71">
+        <v>-0.57099999999999995</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="6:17" x14ac:dyDescent="0.55000000000000004">
       <c r="F72">
         <v>-15.529460847281401</v>
       </c>
       <c r="G72">
         <v>-46.980184420635197</v>
       </c>
-    </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="M72" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N72" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="O72">
+        <v>-0.44274501342739803</v>
+      </c>
+      <c r="P72">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="6:17" x14ac:dyDescent="0.55000000000000004">
       <c r="F73">
         <v>-12.1536944053609</v>
       </c>
       <c r="G73">
         <v>-44.639060754992997</v>
       </c>
-    </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="M73" s="5">
+        <v>-0.5</v>
+      </c>
+      <c r="N73" s="4">
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="O73">
+        <v>-0.340120991420026</v>
+      </c>
+      <c r="P73">
+        <v>-0.59799999999999998</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="6:17" x14ac:dyDescent="0.55000000000000004">
       <c r="F74">
         <v>26.553868599497601</v>
       </c>
       <c r="G74">
         <v>46.815301645274701</v>
       </c>
-    </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="M74" s="5">
+        <v>0</v>
+      </c>
+      <c r="N74" s="4">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>-0.26251975065025002</v>
+      </c>
+      <c r="P74">
+        <v>-0.53800000000000003</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="6:17" x14ac:dyDescent="0.55000000000000004">
       <c r="F75">
         <v>2.51672433303359</v>
       </c>
       <c r="G75">
         <v>-24.6354412676429</v>
       </c>
-    </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+    </row>
+    <row r="76" spans="6:17" x14ac:dyDescent="0.55000000000000004">
       <c r="F76">
         <v>7.4730947097655704</v>
       </c>
@@ -2628,7 +2965,7 @@
         <v>20.241661346426898</v>
       </c>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="6:17" x14ac:dyDescent="0.55000000000000004">
       <c r="F77">
         <v>23.826792336802299</v>
       </c>
@@ -2636,7 +2973,7 @@
         <v>58.652100687750902</v>
       </c>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="6:17" x14ac:dyDescent="0.55000000000000004">
       <c r="F78">
         <v>15.759069756547101</v>
       </c>
@@ -2644,7 +2981,7 @@
         <v>37.294150301888301</v>
       </c>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="6:17" x14ac:dyDescent="0.55000000000000004">
       <c r="F79">
         <v>7.2202941364755802</v>
       </c>
@@ -2652,7 +2989,7 @@
         <v>14.7975933326352</v>
       </c>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="6:17" x14ac:dyDescent="0.55000000000000004">
       <c r="F80">
         <v>-1.6796630754173001</v>
       </c>
